--- a/attendance_register.xlsx
+++ b/attendance_register.xlsx
@@ -1,336 +1,189 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8000"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19200" windowHeight="8000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Attendance</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>16:34:28.257699</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>hellllll</t>
-  </si>
-  <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
-    <t>16:37:52.079092</t>
-  </si>
-  <si>
-    <t>hellloooooo</t>
-  </si>
-  <si>
-    <t>16:41:17.532393</t>
-  </si>
-  <si>
-    <t>it's me</t>
-  </si>
-  <si>
-    <t>mark21@gmail.com</t>
-  </si>
-  <si>
-    <t>16:42:36.963551</t>
-  </si>
-  <si>
-    <t>Leave</t>
-  </si>
-  <si>
-    <t>Very sick. Cannot attend.</t>
-  </si>
-  <si>
-    <t>16:43:30.435460</t>
-  </si>
-  <si>
-    <t>I'm here</t>
-  </si>
-  <si>
-    <t>2024-11-09</t>
-  </si>
-  <si>
-    <t>07:14:14.317599</t>
-  </si>
-  <si>
-    <t>07:27:28.528918</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>08:50:39.042891</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>chris12@gmail.com</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>kevin</t>
-  </si>
-  <si>
-    <t>k@gmail.com</t>
-  </si>
-  <si>
-    <t>hart</t>
-  </si>
-  <si>
-    <t>khart@gmail.com</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Mark@123</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>and@gmail.com</t>
-  </si>
-  <si>
-    <t>Andy123</t>
-  </si>
-  <si>
-    <t>adsfsd</t>
-  </si>
-  <si>
-    <t>asd@gmail.com</t>
-  </si>
-  <si>
-    <t>asdfg</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -646,154 +499,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -849,11 +702,74 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1140,274 +1056,431 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="19.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="11.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="23.7272727272727" customWidth="1"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="19.9090909090909" customWidth="1" min="2" max="2"/>
+    <col width="11.2727272727273" customWidth="1" min="3" max="3"/>
+    <col width="23.7272727272727" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Attendance</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>16:34:28.257699</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>hellllll</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>abc@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>16:37:52.079092</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>hellloooooo</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>abc@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>16:41:17.532393</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>it's me</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>mark21@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>16:42:36.963551</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Very sick. Cannot attend.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>abc@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>16:43:30.435460</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>I'm here</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>mark21@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>07:14:14.317599</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Very sick. Cannot attend.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>abc@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07:27:28.528918</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>abc@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>08:50:39.042891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>chris12@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>09:01:46.522962</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Kidding. I'm here already.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>mark21@gmail.com</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="17.0909090909091" customWidth="1"/>
+    <col width="17.0909090909091" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Steve</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>abc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>12345</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>kevin</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>k@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>123123</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>hart</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>khart@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>123123</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>mark21@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mark@123</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>and@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Andy123</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>adsfsd</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>asd@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>asdfg</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>